--- a/DecisionTree/Baitap/ClassicWeather.xlsx
+++ b/DecisionTree/Baitap/ClassicWeather.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="15">
   <si>
     <t>outlook</t>
   </si>
@@ -69,15 +69,6 @@
   </si>
   <si>
     <t>yes</t>
-  </si>
-  <si>
-    <t>Entropy(S)</t>
-  </si>
-  <si>
-    <t>rows</t>
-  </si>
-  <si>
-    <t>G(S,temp)</t>
   </si>
 </sst>
 </file>
@@ -426,7 +417,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G1" sqref="G1:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -452,18 +443,8 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
@@ -484,22 +465,9 @@
       <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="5">
-        <f>ROWS(F2:F15)</f>
-        <v>14</v>
-      </c>
-      <c r="H2" s="5">
-        <f>COUNTIF(F2:F15,"yes")</f>
-        <v>9</v>
-      </c>
-      <c r="I2" s="5">
-        <f>COUNTIF(F2:F15,"no")</f>
-        <v>5</v>
-      </c>
-      <c r="J2">
-        <f>-H2/G2*LOG(H2/G2,2)-I2/G2*LOG(I2/G2,2)</f>
-        <v>0.94028595867063092</v>
-      </c>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -522,9 +490,7 @@
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
-      <c r="K3" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
